--- a/Stats/Model_Stats_2.xlsx
+++ b/Stats/Model_Stats_2.xlsx
@@ -737,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,22 +798,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d_Duesseldorf</t>
+          <t>d_Koeln</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Koeln</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>14.115</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Duesseldorf</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>94099.99999999999</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Hannover</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>p1</t>
@@ -821,22 +821,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Duesseldorf-Essen-Dortmund-Hannover</t>
+          <t>Koeln-Dortmund-Essen-Duesseldorf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>e7-e4-e5</t>
+          <t>e6-e4-e7</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>283.1</v>
+        <v>166.1</v>
       </c>
     </row>
     <row r="3">
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -846,22 +846,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Duesseldorf-Koeln-Frankfurt-Hannover</t>
+          <t>Koeln-Duesseldorf</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>e8-e10-e9</t>
+          <t>e8</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>584.7</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="4">
       <c r="E4" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -871,22 +871,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Duesseldorf-Essen-Dortmund-Koeln</t>
+          <t>Koeln-Dortmund-Hannover</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>e7-e4-e6</t>
+          <t>e6-e5</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>166.1</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -896,16 +896,16 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Duesseldorf-Koeln</t>
+          <t>Koeln-Frankfurt-Hannover</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>e8</t>
+          <t>e10-e9</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>39.6</v>
+        <v>545.1</v>
       </c>
     </row>
     <row r="6">
@@ -914,20 +914,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>d_Dortmund</t>
+          <t>d_Bremen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>141150</v>
+        <v>9.409999999999998</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -937,16 +937,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dortmund-Hannover</t>
+          <t>Bremen-Hannover-Dortmund-Essen-Duesseldorf</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>e5</t>
+          <t>e3-e5-e4-e7</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>211.6</v>
+        <v>404.48</v>
       </c>
     </row>
     <row r="7">
@@ -962,22 +962,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dortmund-Koeln-Frankfurt-Hannover</t>
+          <t>Bremen-Hamburg-Hannover</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>e6-e10-e9</t>
+          <t>e2-e11</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>639.7</v>
+        <v>273.66</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -987,85 +987,85 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dortmund-Essen-Duesseldorf-Koeln</t>
+          <t>Bremen-Hannover</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>e4-e7-e8</t>
+          <t>e3</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>111.1</v>
+        <v>121.38</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>d_Dortmund</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>14.115</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dortmund-Hannover-Frankfurt-Koeln</t>
+          <t>Dortmund-Essen-Duesseldorf</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>e5-e9-e10</t>
+          <t>e4-e7</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>756.7</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>p5</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dortmund-Koeln</t>
+          <t>Dortmund-Koeln-Duesseldorf</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>e6</t>
+          <t>e6-e8</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>94.59999999999999</v>
+        <v>134.2</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>d_Hamburg</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Hamburg</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>141150</v>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Hannover</t>
@@ -1073,21 +1073,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hamburg-Berlin-Hannover</t>
+          <t>Dortmund-Hannover</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>e0-e1</t>
+          <t>e5</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>601.23</v>
+        <v>211.6</v>
       </c>
     </row>
     <row r="12">
@@ -1098,90 +1098,90 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hamburg-Bremen-Hannover</t>
+          <t>Dortmund-Koeln-Frankfurt-Hannover</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>e2-e3</t>
+          <t>e6-e10-e9</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>236.14</v>
+        <v>639.7</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>d_Frankfurt</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>9.409999999999998</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hamburg-Hannover</t>
+          <t>Frankfurt-Hannover-Dortmund-Essen-Duesseldorf</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>e11</t>
+          <t>e9-e5-e4-e7</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>158.9</v>
+        <v>637.6</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hamburg-Hannover-Dortmund-Koeln</t>
+          <t>Frankfurt-Koeln-Duesseldorf</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>e11-e5-e6</t>
+          <t>e10-e8</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>465.1</v>
+        <v>230.2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>d_Berlin</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>94099.99999999999</v>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Hannover</t>
@@ -1189,21 +1189,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Berlin-Hamburg-Hannover</t>
+          <t>Frankfurt-Hannover</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>e0-e11</t>
+          <t>e9</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>465.23</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="16">
@@ -1214,87 +1214,87 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>p4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Frankfurt-Koeln-Dortmund-Hannover</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>e10-e6-e5</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>496.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>d_Hamburg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>14.115</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Duesseldorf</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>p1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hamburg-Hannover-Dortmund-Essen-Duesseldorf</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>e11-e5-e4-e7</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>p2</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Berlin-Hannover</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>e1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>294.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Koeln</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>p3</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Berlin-Hannover-Dortmund-Koeln</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>e1-e5-e6</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>601.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>d_Bremen</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Bremen</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>94099.99999999999</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Hannover</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>p1</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bremen-Hamburg-Hannover</t>
+          <t>Hamburg-Berlin-Hannover</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>e2-e11</t>
+          <t>e0-e1</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>273.66</v>
+        <v>601.23</v>
       </c>
     </row>
     <row r="19">
@@ -1305,46 +1305,46 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bremen-Hannover</t>
+          <t>Hamburg-Bremen-Hannover</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>e3</t>
+          <t>e2-e3</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>121.38</v>
+        <v>236.14</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Dortmund-Koeln</t>
+          <t>Hamburg-Hannover</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>e3-e5-e6</t>
+          <t>e11</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>427.58</v>
+        <v>158.9</v>
       </c>
     </row>
     <row r="21">
@@ -1362,11 +1362,11 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>94099.99999999999</v>
+        <v>9.409999999999998</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1376,22 +1376,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Hannover</t>
+          <t>Essen-Dortmund-Koeln-Duesseldorf</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>e4-e5</t>
+          <t>e4-e6-e8</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>248.6</v>
+        <v>171.2</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1401,22 +1401,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Essen-Duesseldorf-Koeln-Frankfurt-Hannover</t>
+          <t>Essen-Duesseldorf</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>e7-e8-e10-e9</t>
+          <t>e7</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>619.2</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1426,22 +1426,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Essen-Dortmund-Koeln</t>
+          <t>Essen-Dortmund-Hannover</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>e4-e6</t>
+          <t>e4-e5</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>131.6</v>
+        <v>248.6</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1451,16 +1451,16 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Essen-Duesseldorf-Koeln</t>
+          <t>Essen-Duesseldorf-Koeln-Frankfurt-Hannover</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>e7-e8</t>
+          <t>e7-e8-e10-e9</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>74.09999999999999</v>
+        <v>619.2</v>
       </c>
     </row>
     <row r="25">
@@ -1469,20 +1469,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>d_Frankfurt</t>
+          <t>d_Berlin</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>94099.99999999999</v>
+        <v>9.409999999999998</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1492,16 +1492,16 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Frankfurt-Hannover</t>
+          <t>Berlin-Hannover-Dortmund-Essen-Duesseldorf</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>e9</t>
+          <t>e1-e5-e4-e7</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>354.5</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26">
@@ -1517,22 +1517,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Frankfurt-Koeln-Dortmund-Hannover</t>
+          <t>Berlin-Hamburg-Hannover</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>e10-e6-e5</t>
+          <t>e0-e11</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>496.8</v>
+        <v>465.23</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1542,41 +1542,16 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Frankfurt-Hannover-Dortmund-Koeln</t>
+          <t>Berlin-Hannover</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>e9-e5-e6</t>
+          <t>e1</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>660.7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Koeln</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>p4</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Frankfurt-Koeln</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>e10</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>190.6</v>
+        <v>294.9</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1592,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mu_d_Duesseldorf_p1</t>
+          <t>mu_d_Koeln_p2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1630,7 +1605,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mu_d_Duesseldorf_p4</t>
+          <t>mu_d_Koeln_p3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1643,7 +1618,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mu_d_Dortmund_p1</t>
+          <t>mu_d_Bremen_p1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1656,7 +1631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mu_d_Dortmund_p5</t>
+          <t>mu_d_Bremen_p2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1669,7 +1644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mu_d_Hamburg_p2</t>
+          <t>mu_d_Dortmund_p1</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1682,7 +1657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mu_d_Hamburg_p4</t>
+          <t>mu_d_Dortmund_p3</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1695,7 +1670,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mu_d_Berlin_p1</t>
+          <t>mu_d_Frankfurt_p2</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1708,7 +1683,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mu_d_Berlin_p3</t>
+          <t>mu_d_Frankfurt_p3</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1721,7 +1696,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mu_d_Bremen_p1</t>
+          <t>mu_d_Hamburg_p1</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1734,7 +1709,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mu_d_Bremen_p3</t>
+          <t>mu_d_Hamburg_p3</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1747,7 +1722,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mu_d_Essen_p1</t>
+          <t>mu_d_Essen_p2</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1760,7 +1735,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mu_d_Essen_p4</t>
+          <t>mu_d_Essen_p3</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1773,7 +1748,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mu_d_Frankfurt_p1</t>
+          <t>mu_d_Berlin_p1</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1786,7 +1761,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mu_d_Frankfurt_p4</t>
+          <t>mu_d_Berlin_p2</t>
         </is>
       </c>
       <c r="C16" t="n">
